--- a/data/ACS_Estimates_2010-2022.xlsx
+++ b/data/ACS_Estimates_2010-2022.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spsr12-my.sharepoint.com/personal/kaleach_r12mail_sps_org/Documents/Desktop/Grad_School/SY2023/Capstone/ML_Enrollment_Projections/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ML_Enrollment_Projections\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7C9E8844-63D2-4287-8AD3-5E7B84004EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0872DD-3111-49A9-A414-696116524185}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8492AA-96DB-45E4-8F7C-03AE84873918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-12" windowWidth="23256" windowHeight="12456" xr2:uid="{C759E9B8-5047-4BF6-BF9D-C278C69DB555}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C759E9B8-5047-4BF6-BF9D-C278C69DB555}"/>
   </bookViews>
   <sheets>
     <sheet name="ACS_Estimates" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">ACS_Estimates!$A$1:$Q$13</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">ACS_Estimates!$A$1:$Q$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -189,7 +189,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,8 +246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D94998E6-8DED-4433-AFF6-70E80A735379}" name="Data" displayName="Data" ref="A1:Q13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q13" xr:uid="{D94998E6-8DED-4433-AFF6-70E80A735379}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D94998E6-8DED-4433-AFF6-70E80A735379}" name="Data" displayName="Data" ref="A1:Q14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:Q14" xr:uid="{D94998E6-8DED-4433-AFF6-70E80A735379}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{21BD0455-C977-4AFC-84F9-20DC45559C8F}" uniqueName="1" name="Year" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{82B9A0A9-7A9F-4CAE-8CBA-DDBDC93D32C1}" uniqueName="2" name="GEO" queryTableFieldId="2" dataDxfId="1"/>
@@ -586,9 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A740F39-6A97-4EBE-B2F7-6264A29B36F1}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -664,13 +668,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2">
@@ -717,13 +721,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3">
@@ -770,13 +774,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4">
@@ -823,13 +827,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5">
@@ -876,13 +880,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6">
@@ -929,13 +933,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7">
@@ -982,13 +986,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8">
@@ -1035,13 +1039,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9">
@@ -1088,13 +1092,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
@@ -1141,13 +1145,13 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11">
@@ -1194,108 +1198,122 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12">
-        <v>41075</v>
-      </c>
-      <c r="E12">
-        <v>40814</v>
-      </c>
-      <c r="F12">
-        <v>6513</v>
-      </c>
-      <c r="G12">
-        <v>3587</v>
-      </c>
-      <c r="H12">
-        <v>1797</v>
-      </c>
-      <c r="I12">
-        <v>7681</v>
-      </c>
-      <c r="J12">
-        <v>6555</v>
-      </c>
-      <c r="K12">
-        <v>7773</v>
-      </c>
-      <c r="L12">
-        <v>6908</v>
-      </c>
-      <c r="M12">
-        <v>261</v>
-      </c>
       <c r="N12">
-        <v>3587</v>
-      </c>
-      <c r="O12">
-        <v>16033</v>
-      </c>
-      <c r="P12">
-        <v>7773</v>
-      </c>
-      <c r="Q12">
-        <v>9188</v>
+        <v>11798</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>41075</v>
+      </c>
+      <c r="E13">
+        <v>40814</v>
+      </c>
+      <c r="F13">
+        <v>6513</v>
+      </c>
+      <c r="G13">
+        <v>3587</v>
+      </c>
+      <c r="H13">
+        <v>1797</v>
+      </c>
+      <c r="I13">
+        <v>7681</v>
+      </c>
+      <c r="J13">
+        <v>6555</v>
+      </c>
+      <c r="K13">
+        <v>7773</v>
+      </c>
+      <c r="L13">
+        <v>6908</v>
+      </c>
+      <c r="M13">
+        <v>261</v>
+      </c>
+      <c r="N13">
+        <v>3587</v>
+      </c>
+      <c r="O13">
+        <v>16033</v>
+      </c>
+      <c r="P13">
+        <v>7773</v>
+      </c>
+      <c r="Q13">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>41006</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>40804</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>5167</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>4360</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>3145</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>7609</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>5986</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>7736</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>6801</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>202</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>4360</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>16740</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>7736</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>9045</v>
       </c>
     </row>
